--- a/biology/Botanique/Élodée/Élodée.xlsx
+++ b/biology/Botanique/Élodée/Élodée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lod%C3%A9e</t>
+          <t>Élodée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elodea
 Les élodées ou hélodées (genre Elodea) sont des plantes aquatiques  originaires d'Amérique du Nord. Ce sont des plantes largement employées pour garnir les aquariums. L'introduction de certaines espèces, notamment l'élodée du Canada, dans les cours d'eau d'Europe et d'autres parties du monde a créé certains problèmes du fait de leur prolifération incontrôlable.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89lod%C3%A9e</t>
+          <t>Élodée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes aquatiques flottantes complètement immergées, à l'exception des petites fleurs blanches qui éclosent à la surface de l'eau, reliées à la plante par un fin pédoncule. Les tiges grêles et longues de plusieurs mètres sont munies de feuilles verticillées par trois. Il s'agit de plantes dioïques, à sexes séparés. En Europe n'existent que des pieds femelles.
 Elles produisent des bourgeons terminaux qui hivernent au fond de l'eau, mais elles peuvent aussi résister à la mauvaise saison et se comporter comme des plantes vivaces dans les climats plus doux.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89lod%C3%A9e</t>
+          <t>Élodée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes répandues dans toutes les zones tempérées d'Amérique du Nord. L'élodée est l'une des plantes aquatiques les plus communes à Washington.
 Elles se sont largement naturalisées en Europe, en Afrique, en Asie et en Australasie.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89lod%C3%A9e</t>
+          <t>Élodée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,11 +595,13 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Elodea bifoliata St.John
-Elodea callitrichoides Casp. (ou éolodée à feuilles allongées = E. ernstiae, St John)[1]
+Elodea callitrichoides Casp. (ou éolodée à feuilles allongées = E. ernstiae, St John)
 Elodea canadensis Michx.
 Elodea fraseri Spach
 Elodea granatensis Humb. &amp; Bonpl. - much of South America
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89lod%C3%A9e</t>
+          <t>Élodée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,7 +639,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les élodées ont un certain intérêt économique en tant que plantes d'aquarium.
 C'était une plante médicinale pour les Iroquois.
@@ -637,7 +657,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89lod%C3%A9e</t>
+          <t>Élodée</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -655,10 +675,12 @@
           <t>Risques de confusion</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les élodées peuvent au premier abord être assez facilement confondue avec des plantes des genres proches:  
-genre Hydrilla (de la famille Hydrillae (Hydrocharitaceae)[2]) ;
+genre Hydrilla (de la famille Hydrillae (Hydrocharitaceae)) ;
 genre Egeria
 genre Lagarosiphon</t>
         </is>
